--- a/natmiOut/OldD2/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.7614454240769</v>
+        <v>17.1868345</v>
       </c>
       <c r="H2">
-        <v>16.7614454240769</v>
+        <v>34.373669</v>
       </c>
       <c r="I2">
-        <v>0.1442553221487941</v>
+        <v>0.127281611696507</v>
       </c>
       <c r="J2">
-        <v>0.1442553221487941</v>
+        <v>0.09011043807170635</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.3842875650943</v>
+        <v>11.541773</v>
       </c>
       <c r="N2">
-        <v>11.3842875650943</v>
+        <v>23.083546</v>
       </c>
       <c r="O2">
-        <v>0.2314918227471734</v>
+        <v>0.2250656192673999</v>
       </c>
       <c r="P2">
-        <v>0.2314918227471734</v>
+        <v>0.1829004464319742</v>
       </c>
       <c r="Q2">
-        <v>190.8171147143254</v>
+        <v>198.3665423875685</v>
       </c>
       <c r="R2">
-        <v>190.8171147143254</v>
+        <v>793.4661695502739</v>
       </c>
       <c r="S2">
-        <v>0.03339392746520503</v>
+        <v>0.02864671475782708</v>
       </c>
       <c r="T2">
-        <v>0.03339392746520503</v>
+        <v>0.01648123935149586</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.7614454240769</v>
+        <v>17.1868345</v>
       </c>
       <c r="H3">
-        <v>16.7614454240769</v>
+        <v>34.373669</v>
       </c>
       <c r="I3">
-        <v>0.1442553221487941</v>
+        <v>0.127281611696507</v>
       </c>
       <c r="J3">
-        <v>0.1442553221487941</v>
+        <v>0.09011043807170635</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.190744212588671</v>
+        <v>8.826438333333334</v>
       </c>
       <c r="N3">
-        <v>8.190744212588671</v>
+        <v>26.479315</v>
       </c>
       <c r="O3">
-        <v>0.1665532688441278</v>
+        <v>0.1721163472386074</v>
       </c>
       <c r="P3">
-        <v>0.1665532688441278</v>
+        <v>0.20980652343071</v>
       </c>
       <c r="Q3">
-        <v>137.2887121018787</v>
+        <v>151.6985348594558</v>
       </c>
       <c r="R3">
-        <v>137.2887121018787</v>
+        <v>910.191209156735</v>
       </c>
       <c r="S3">
-        <v>0.02402619545204437</v>
+        <v>0.0219072460758456</v>
       </c>
       <c r="T3">
-        <v>0.02402619545204437</v>
+        <v>0.018905757736643</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.7614454240769</v>
+        <v>17.1868345</v>
       </c>
       <c r="H4">
-        <v>16.7614454240769</v>
+        <v>34.373669</v>
       </c>
       <c r="I4">
-        <v>0.1442553221487941</v>
+        <v>0.127281611696507</v>
       </c>
       <c r="J4">
-        <v>0.1442553221487941</v>
+        <v>0.09011043807170635</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.36062354705746</v>
+        <v>3.407739666666667</v>
       </c>
       <c r="N4">
-        <v>3.36062354705746</v>
+        <v>10.223219</v>
       </c>
       <c r="O4">
-        <v>0.06833601716638985</v>
+        <v>0.06645123226565072</v>
       </c>
       <c r="P4">
-        <v>0.06833601716638985</v>
+        <v>0.0810027765695895</v>
       </c>
       <c r="Q4">
-        <v>56.32890817487134</v>
+        <v>58.56825767008517</v>
       </c>
       <c r="R4">
-        <v>56.32890817487134</v>
+        <v>351.409546020511</v>
       </c>
       <c r="S4">
-        <v>0.00985783417070309</v>
+        <v>0.008458019941990953</v>
       </c>
       <c r="T4">
-        <v>0.00985783417070309</v>
+        <v>0.007299195681710261</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.7614454240769</v>
+        <v>17.1868345</v>
       </c>
       <c r="H5">
-        <v>16.7614454240769</v>
+        <v>34.373669</v>
       </c>
       <c r="I5">
-        <v>0.1442553221487941</v>
+        <v>0.127281611696507</v>
       </c>
       <c r="J5">
-        <v>0.1442553221487941</v>
+        <v>0.09011043807170635</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.46296520173015</v>
+        <v>2.474605</v>
       </c>
       <c r="N5">
-        <v>2.46296520173015</v>
+        <v>7.423815</v>
       </c>
       <c r="O5">
-        <v>0.0500827390955535</v>
+        <v>0.0482550217169584</v>
       </c>
       <c r="P5">
-        <v>0.0500827390955535</v>
+        <v>0.05882194519543864</v>
       </c>
       <c r="Q5">
-        <v>41.28285681020046</v>
+        <v>42.5306265878725</v>
       </c>
       <c r="R5">
-        <v>41.28285681020046</v>
+        <v>255.183759527235</v>
       </c>
       <c r="S5">
-        <v>0.007224701662323075</v>
+        <v>0.006141976936584413</v>
       </c>
       <c r="T5">
-        <v>0.007224701662323075</v>
+        <v>0.005300471249790878</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.7614454240769</v>
+        <v>17.1868345</v>
       </c>
       <c r="H6">
-        <v>16.7614454240769</v>
+        <v>34.373669</v>
       </c>
       <c r="I6">
-        <v>0.1442553221487941</v>
+        <v>0.127281611696507</v>
       </c>
       <c r="J6">
-        <v>0.1442553221487941</v>
+        <v>0.09011043807170635</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.696497647771929</v>
+        <v>8.935845</v>
       </c>
       <c r="N6">
-        <v>8.696497647771929</v>
+        <v>26.807535</v>
       </c>
       <c r="O6">
-        <v>0.1768374244315352</v>
+        <v>0.174249787151636</v>
       </c>
       <c r="P6">
-        <v>0.1768374244315352</v>
+        <v>0.2124071457323227</v>
       </c>
       <c r="Q6">
-        <v>145.7658707037423</v>
+        <v>153.5788891326525</v>
       </c>
       <c r="R6">
-        <v>145.7658707037423</v>
+        <v>921.4733347959151</v>
       </c>
       <c r="S6">
-        <v>0.02550973962933414</v>
+        <v>0.02217879374643353</v>
       </c>
       <c r="T6">
-        <v>0.02550973962933414</v>
+        <v>0.01914010095150037</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.7614454240769</v>
+        <v>17.1868345</v>
       </c>
       <c r="H7">
-        <v>16.7614454240769</v>
+        <v>34.373669</v>
       </c>
       <c r="I7">
-        <v>0.1442553221487941</v>
+        <v>0.127281611696507</v>
       </c>
       <c r="J7">
-        <v>0.1442553221487941</v>
+        <v>0.09011043807170635</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.082807119161</v>
+        <v>16.095412</v>
       </c>
       <c r="N7">
-        <v>15.082807119161</v>
+        <v>32.190824</v>
       </c>
       <c r="O7">
-        <v>0.3066987277152201</v>
+        <v>0.3138619923597475</v>
       </c>
       <c r="P7">
-        <v>0.3066987277152201</v>
+        <v>0.2550611626399649</v>
       </c>
       <c r="Q7">
-        <v>252.8096483696956</v>
+        <v>276.629182253314</v>
       </c>
       <c r="R7">
-        <v>252.8096483696956</v>
+        <v>1106.516729013256</v>
       </c>
       <c r="S7">
-        <v>0.04424292376918434</v>
+        <v>0.03994886023782543</v>
       </c>
       <c r="T7">
-        <v>0.04424292376918434</v>
+        <v>0.02298367310056598</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.0729851392367</v>
+        <v>29.54507199999999</v>
       </c>
       <c r="H8">
-        <v>28.0729851392367</v>
+        <v>88.63521599999999</v>
       </c>
       <c r="I8">
-        <v>0.2416066999282627</v>
+        <v>0.2188037815718386</v>
       </c>
       <c r="J8">
-        <v>0.2416066999282627</v>
+        <v>0.2323568700897281</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.3842875650943</v>
+        <v>11.541773</v>
       </c>
       <c r="N8">
-        <v>11.3842875650943</v>
+        <v>23.083546</v>
       </c>
       <c r="O8">
-        <v>0.2314918227471734</v>
+        <v>0.2250656192673999</v>
       </c>
       <c r="P8">
-        <v>0.2314918227471734</v>
+        <v>0.1829004464319742</v>
       </c>
       <c r="Q8">
-        <v>319.5909356356894</v>
+        <v>341.0025142926559</v>
       </c>
       <c r="R8">
-        <v>319.5909356356894</v>
+        <v>2046.015085755936</v>
       </c>
       <c r="S8">
-        <v>0.05592997535432288</v>
+        <v>0.04924520859751477</v>
       </c>
       <c r="T8">
-        <v>0.05592997535432288</v>
+        <v>0.04249817527094751</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.0729851392367</v>
+        <v>29.54507199999999</v>
       </c>
       <c r="H9">
-        <v>28.0729851392367</v>
+        <v>88.63521599999999</v>
       </c>
       <c r="I9">
-        <v>0.2416066999282627</v>
+        <v>0.2188037815718386</v>
       </c>
       <c r="J9">
-        <v>0.2416066999282627</v>
+        <v>0.2323568700897281</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.190744212588671</v>
+        <v>8.826438333333334</v>
       </c>
       <c r="N9">
-        <v>8.190744212588671</v>
+        <v>26.479315</v>
       </c>
       <c r="O9">
-        <v>0.1665532688441278</v>
+        <v>0.1721163472386074</v>
       </c>
       <c r="P9">
-        <v>0.1665532688441278</v>
+        <v>0.20980652343071</v>
       </c>
       <c r="Q9">
-        <v>229.9386405592907</v>
+        <v>260.7777560618933</v>
       </c>
       <c r="R9">
-        <v>229.9386405592907</v>
+        <v>2346.99980455704</v>
       </c>
       <c r="S9">
-        <v>0.04024038564769445</v>
+        <v>0.037659707646139</v>
       </c>
       <c r="T9">
-        <v>0.04024038564769445</v>
+        <v>0.04874998710876698</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.0729851392367</v>
+        <v>29.54507199999999</v>
       </c>
       <c r="H10">
-        <v>28.0729851392367</v>
+        <v>88.63521599999999</v>
       </c>
       <c r="I10">
-        <v>0.2416066999282627</v>
+        <v>0.2188037815718386</v>
       </c>
       <c r="J10">
-        <v>0.2416066999282627</v>
+        <v>0.2323568700897281</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.36062354705746</v>
+        <v>3.407739666666667</v>
       </c>
       <c r="N10">
-        <v>3.36062354705746</v>
+        <v>10.223219</v>
       </c>
       <c r="O10">
-        <v>0.06833601716638985</v>
+        <v>0.06645123226565072</v>
       </c>
       <c r="P10">
-        <v>0.06833601716638985</v>
+        <v>0.0810027765695895</v>
       </c>
       <c r="Q10">
-        <v>94.342734895113</v>
+        <v>100.6819138089226</v>
       </c>
       <c r="R10">
-        <v>94.342734895113</v>
+        <v>906.1372242803038</v>
       </c>
       <c r="S10">
-        <v>0.01651043959381256</v>
+        <v>0.01453978090983296</v>
       </c>
       <c r="T10">
-        <v>0.01651043959381256</v>
+        <v>0.01882155163228738</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.0729851392367</v>
+        <v>29.54507199999999</v>
       </c>
       <c r="H11">
-        <v>28.0729851392367</v>
+        <v>88.63521599999999</v>
       </c>
       <c r="I11">
-        <v>0.2416066999282627</v>
+        <v>0.2188037815718386</v>
       </c>
       <c r="J11">
-        <v>0.2416066999282627</v>
+        <v>0.2323568700897281</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.46296520173015</v>
+        <v>2.474605</v>
       </c>
       <c r="N11">
-        <v>2.46296520173015</v>
+        <v>7.423815</v>
       </c>
       <c r="O11">
-        <v>0.0500827390955535</v>
+        <v>0.0482550217169584</v>
       </c>
       <c r="P11">
-        <v>0.0500827390955535</v>
+        <v>0.05882194519543864</v>
       </c>
       <c r="Q11">
-        <v>69.14278550662762</v>
+        <v>73.11238289655998</v>
       </c>
       <c r="R11">
-        <v>69.14278550662762</v>
+        <v>658.0114460690399</v>
       </c>
       <c r="S11">
-        <v>0.01210032531624486</v>
+        <v>0.0105583812315017</v>
       </c>
       <c r="T11">
-        <v>0.01210032531624486</v>
+        <v>0.01366768307820164</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.0729851392367</v>
+        <v>29.54507199999999</v>
       </c>
       <c r="H12">
-        <v>28.0729851392367</v>
+        <v>88.63521599999999</v>
       </c>
       <c r="I12">
-        <v>0.2416066999282627</v>
+        <v>0.2188037815718386</v>
       </c>
       <c r="J12">
-        <v>0.2416066999282627</v>
+        <v>0.2323568700897281</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.696497647771929</v>
+        <v>8.935845</v>
       </c>
       <c r="N12">
-        <v>8.696497647771929</v>
+        <v>26.807535</v>
       </c>
       <c r="O12">
-        <v>0.1768374244315352</v>
+        <v>0.174249787151636</v>
       </c>
       <c r="P12">
-        <v>0.1768374244315352</v>
+        <v>0.2124071457323227</v>
       </c>
       <c r="Q12">
-        <v>244.1366492293083</v>
+        <v>264.0101839058399</v>
       </c>
       <c r="R12">
-        <v>244.1366492293083</v>
+        <v>2376.09165515256</v>
       </c>
       <c r="S12">
-        <v>0.04272510654071675</v>
+        <v>0.03812651236686593</v>
       </c>
       <c r="T12">
-        <v>0.04272510654071675</v>
+        <v>0.04935425956705525</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.0729851392367</v>
+        <v>29.54507199999999</v>
       </c>
       <c r="H13">
-        <v>28.0729851392367</v>
+        <v>88.63521599999999</v>
       </c>
       <c r="I13">
-        <v>0.2416066999282627</v>
+        <v>0.2188037815718386</v>
       </c>
       <c r="J13">
-        <v>0.2416066999282627</v>
+        <v>0.2323568700897281</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.082807119161</v>
+        <v>16.095412</v>
       </c>
       <c r="N13">
-        <v>15.082807119161</v>
+        <v>32.190824</v>
       </c>
       <c r="O13">
-        <v>0.3066987277152201</v>
+        <v>0.3138619923597475</v>
       </c>
       <c r="P13">
-        <v>0.3066987277152201</v>
+        <v>0.2550611626399649</v>
       </c>
       <c r="Q13">
-        <v>423.4194201141802</v>
+        <v>475.5401064096639</v>
       </c>
       <c r="R13">
-        <v>423.4194201141802</v>
+        <v>2853.240638457984</v>
       </c>
       <c r="S13">
-        <v>0.07410046747547111</v>
+        <v>0.06867419081998427</v>
       </c>
       <c r="T13">
-        <v>0.07410046747547111</v>
+        <v>0.05926521343246933</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.7650814337673</v>
+        <v>37.91928366666667</v>
       </c>
       <c r="H14">
-        <v>26.7650814337673</v>
+        <v>113.757851</v>
       </c>
       <c r="I14">
-        <v>0.2303503872655688</v>
+        <v>0.2808212029661638</v>
       </c>
       <c r="J14">
-        <v>0.2303503872655688</v>
+        <v>0.2982157589201752</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.3842875650943</v>
+        <v>11.541773</v>
       </c>
       <c r="N14">
-        <v>11.3842875650943</v>
+        <v>23.083546</v>
       </c>
       <c r="O14">
-        <v>0.2314918227471734</v>
+        <v>0.2250656192673999</v>
       </c>
       <c r="P14">
-        <v>0.2314918227471734</v>
+        <v>0.1829004464319742</v>
       </c>
       <c r="Q14">
-        <v>304.7013837451734</v>
+        <v>437.6557644032743</v>
       </c>
       <c r="R14">
-        <v>304.7013837451734</v>
+        <v>2625.934586419646</v>
       </c>
       <c r="S14">
-        <v>0.05332423101862378</v>
+        <v>0.06320319794899586</v>
       </c>
       <c r="T14">
-        <v>0.05332423101862378</v>
+        <v>0.05454379543955003</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.7650814337673</v>
+        <v>37.91928366666667</v>
       </c>
       <c r="H15">
-        <v>26.7650814337673</v>
+        <v>113.757851</v>
       </c>
       <c r="I15">
-        <v>0.2303503872655688</v>
+        <v>0.2808212029661638</v>
       </c>
       <c r="J15">
-        <v>0.2303503872655688</v>
+        <v>0.2982157589201752</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.190744212588671</v>
+        <v>8.826438333333334</v>
       </c>
       <c r="N15">
-        <v>8.190744212588671</v>
+        <v>26.479315</v>
       </c>
       <c r="O15">
-        <v>0.1665532688441278</v>
+        <v>0.1721163472386074</v>
       </c>
       <c r="P15">
-        <v>0.1665532688441278</v>
+        <v>0.20980652343071</v>
       </c>
       <c r="Q15">
-        <v>219.225935853094</v>
+        <v>334.6922189280072</v>
       </c>
       <c r="R15">
-        <v>219.225935853094</v>
+        <v>3012.229970352065</v>
       </c>
       <c r="S15">
-        <v>0.03836560997859123</v>
+        <v>0.04833391968168771</v>
       </c>
       <c r="T15">
-        <v>0.03836560997859123</v>
+        <v>0.06256761161129269</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.7650814337673</v>
+        <v>37.91928366666667</v>
       </c>
       <c r="H16">
-        <v>26.7650814337673</v>
+        <v>113.757851</v>
       </c>
       <c r="I16">
-        <v>0.2303503872655688</v>
+        <v>0.2808212029661638</v>
       </c>
       <c r="J16">
-        <v>0.2303503872655688</v>
+        <v>0.2982157589201752</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.36062354705746</v>
+        <v>3.407739666666667</v>
       </c>
       <c r="N16">
-        <v>3.36062354705746</v>
+        <v>10.223219</v>
       </c>
       <c r="O16">
-        <v>0.06833601716638985</v>
+        <v>0.06645123226565072</v>
       </c>
       <c r="P16">
-        <v>0.06833601716638985</v>
+        <v>0.0810027765695895</v>
       </c>
       <c r="Q16">
-        <v>89.94736290522883</v>
+        <v>129.2190470824854</v>
       </c>
       <c r="R16">
-        <v>89.94736290522883</v>
+        <v>1162.971423742369</v>
       </c>
       <c r="S16">
-        <v>0.01574122801846446</v>
+        <v>0.018660914983424</v>
       </c>
       <c r="T16">
-        <v>0.01574122801846446</v>
+        <v>0.02415630448934152</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.7650814337673</v>
+        <v>37.91928366666667</v>
       </c>
       <c r="H17">
-        <v>26.7650814337673</v>
+        <v>113.757851</v>
       </c>
       <c r="I17">
-        <v>0.2303503872655688</v>
+        <v>0.2808212029661638</v>
       </c>
       <c r="J17">
-        <v>0.2303503872655688</v>
+        <v>0.2982157589201752</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.46296520173015</v>
+        <v>2.474605</v>
       </c>
       <c r="N17">
-        <v>2.46296520173015</v>
+        <v>7.423815</v>
       </c>
       <c r="O17">
-        <v>0.0500827390955535</v>
+        <v>0.0482550217169584</v>
       </c>
       <c r="P17">
-        <v>0.0500827390955535</v>
+        <v>0.05882194519543864</v>
       </c>
       <c r="Q17">
-        <v>65.92146419284256</v>
+        <v>93.83524895795166</v>
       </c>
       <c r="R17">
-        <v>65.92146419284256</v>
+        <v>844.5172406215651</v>
       </c>
       <c r="S17">
-        <v>0.01153657834598119</v>
+        <v>0.01355103324771462</v>
       </c>
       <c r="T17">
-        <v>0.01153657834598119</v>
+        <v>0.01754163102761868</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>26.7650814337673</v>
+        <v>37.91928366666667</v>
       </c>
       <c r="H18">
-        <v>26.7650814337673</v>
+        <v>113.757851</v>
       </c>
       <c r="I18">
-        <v>0.2303503872655688</v>
+        <v>0.2808212029661638</v>
       </c>
       <c r="J18">
-        <v>0.2303503872655688</v>
+        <v>0.2982157589201752</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.696497647771929</v>
+        <v>8.935845</v>
       </c>
       <c r="N18">
-        <v>8.696497647771929</v>
+        <v>26.807535</v>
       </c>
       <c r="O18">
-        <v>0.1768374244315352</v>
+        <v>0.174249787151636</v>
       </c>
       <c r="P18">
-        <v>0.1768374244315352</v>
+        <v>0.2124071457323227</v>
       </c>
       <c r="Q18">
-        <v>232.7624677311815</v>
+        <v>338.840841356365</v>
       </c>
       <c r="R18">
-        <v>232.7624677311815</v>
+        <v>3049.567572207285</v>
       </c>
       <c r="S18">
-        <v>0.04073456920084988</v>
+        <v>0.04893303484452041</v>
       </c>
       <c r="T18">
-        <v>0.04073456920084988</v>
+        <v>0.06334315816463286</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>26.7650814337673</v>
+        <v>37.91928366666667</v>
       </c>
       <c r="H19">
-        <v>26.7650814337673</v>
+        <v>113.757851</v>
       </c>
       <c r="I19">
-        <v>0.2303503872655688</v>
+        <v>0.2808212029661638</v>
       </c>
       <c r="J19">
-        <v>0.2303503872655688</v>
+        <v>0.2982157589201752</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.082807119161</v>
+        <v>16.095412</v>
       </c>
       <c r="N19">
-        <v>15.082807119161</v>
+        <v>32.190824</v>
       </c>
       <c r="O19">
-        <v>0.3066987277152201</v>
+        <v>0.3138619923597475</v>
       </c>
       <c r="P19">
-        <v>0.3066987277152201</v>
+        <v>0.2550611626399649</v>
       </c>
       <c r="Q19">
-        <v>403.6925607941494</v>
+        <v>610.3264933598706</v>
       </c>
       <c r="R19">
-        <v>403.6925607941494</v>
+        <v>3661.958960159224</v>
       </c>
       <c r="S19">
-        <v>0.07064817070305816</v>
+        <v>0.0881391022598212</v>
       </c>
       <c r="T19">
-        <v>0.07064817070305816</v>
+        <v>0.07606325818773935</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>36.3108729463139</v>
+        <v>37.929551</v>
       </c>
       <c r="H20">
-        <v>36.3108729463139</v>
+        <v>113.788653</v>
       </c>
       <c r="I20">
-        <v>0.3125050699297264</v>
+        <v>0.2808972403967036</v>
       </c>
       <c r="J20">
-        <v>0.3125050699297264</v>
+        <v>0.2982965062420129</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.3842875650943</v>
+        <v>11.541773</v>
       </c>
       <c r="N20">
-        <v>11.3842875650943</v>
+        <v>23.083546</v>
       </c>
       <c r="O20">
-        <v>0.2314918227471734</v>
+        <v>0.2250656192673999</v>
       </c>
       <c r="P20">
-        <v>0.2314918227471734</v>
+        <v>0.1829004464319742</v>
       </c>
       <c r="Q20">
-        <v>413.3734193604404</v>
+        <v>437.774267633923</v>
       </c>
       <c r="R20">
-        <v>413.3734193604404</v>
+        <v>2626.645605803538</v>
       </c>
       <c r="S20">
-        <v>0.07234236825576523</v>
+        <v>0.0632203113603878</v>
       </c>
       <c r="T20">
-        <v>0.07234236825576523</v>
+        <v>0.05455856416076234</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>36.3108729463139</v>
+        <v>37.929551</v>
       </c>
       <c r="H21">
-        <v>36.3108729463139</v>
+        <v>113.788653</v>
       </c>
       <c r="I21">
-        <v>0.3125050699297264</v>
+        <v>0.2808972403967036</v>
       </c>
       <c r="J21">
-        <v>0.3125050699297264</v>
+        <v>0.2982965062420129</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.190744212588671</v>
+        <v>8.826438333333334</v>
       </c>
       <c r="N21">
-        <v>8.190744212588671</v>
+        <v>26.479315</v>
       </c>
       <c r="O21">
-        <v>0.1665532688441278</v>
+        <v>0.1721163472386074</v>
       </c>
       <c r="P21">
-        <v>0.1665532688441278</v>
+        <v>0.20980652343071</v>
       </c>
       <c r="Q21">
-        <v>297.4130724390631</v>
+        <v>334.7828429125217</v>
       </c>
       <c r="R21">
-        <v>297.4130724390631</v>
+        <v>3013.045586212695</v>
       </c>
       <c r="S21">
-        <v>0.05204874092715869</v>
+        <v>0.04834700696648563</v>
       </c>
       <c r="T21">
-        <v>0.05204874092715869</v>
+        <v>0.0625845529261638</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>36.3108729463139</v>
+        <v>37.929551</v>
       </c>
       <c r="H22">
-        <v>36.3108729463139</v>
+        <v>113.788653</v>
       </c>
       <c r="I22">
-        <v>0.3125050699297264</v>
+        <v>0.2808972403967036</v>
       </c>
       <c r="J22">
-        <v>0.3125050699297264</v>
+        <v>0.2982965062420129</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.36062354705746</v>
+        <v>3.407739666666667</v>
       </c>
       <c r="N22">
-        <v>3.36062354705746</v>
+        <v>10.223219</v>
       </c>
       <c r="O22">
-        <v>0.06833601716638985</v>
+        <v>0.06645123226565072</v>
       </c>
       <c r="P22">
-        <v>0.06833601716638985</v>
+        <v>0.0810027765695895</v>
       </c>
       <c r="Q22">
-        <v>122.0271746375942</v>
+        <v>129.2540354815563</v>
       </c>
       <c r="R22">
-        <v>122.0271746375942</v>
+        <v>1163.286319334007</v>
       </c>
       <c r="S22">
-        <v>0.02135535182330164</v>
+        <v>0.01866596776438168</v>
       </c>
       <c r="T22">
-        <v>0.02135535182330164</v>
+        <v>0.02416284524661093</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>36.3108729463139</v>
+        <v>37.929551</v>
       </c>
       <c r="H23">
-        <v>36.3108729463139</v>
+        <v>113.788653</v>
       </c>
       <c r="I23">
-        <v>0.3125050699297264</v>
+        <v>0.2808972403967036</v>
       </c>
       <c r="J23">
-        <v>0.3125050699297264</v>
+        <v>0.2982965062420129</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.46296520173015</v>
+        <v>2.474605</v>
       </c>
       <c r="N23">
-        <v>2.46296520173015</v>
+        <v>7.423815</v>
       </c>
       <c r="O23">
-        <v>0.0500827390955535</v>
+        <v>0.0482550217169584</v>
       </c>
       <c r="P23">
-        <v>0.0500827390955535</v>
+        <v>0.05882194519543864</v>
       </c>
       <c r="Q23">
-        <v>89.43241651121586</v>
+        <v>93.86065655235501</v>
       </c>
       <c r="R23">
-        <v>89.43241651121586</v>
+        <v>844.7459089711951</v>
       </c>
       <c r="S23">
-        <v>0.01565110988332819</v>
+        <v>0.01355470243557662</v>
       </c>
       <c r="T23">
-        <v>0.01565110988332819</v>
+        <v>0.0175463807421585</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>36.3108729463139</v>
+        <v>37.929551</v>
       </c>
       <c r="H24">
-        <v>36.3108729463139</v>
+        <v>113.788653</v>
       </c>
       <c r="I24">
-        <v>0.3125050699297264</v>
+        <v>0.2808972403967036</v>
       </c>
       <c r="J24">
-        <v>0.3125050699297264</v>
+        <v>0.2982965062420129</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.696497647771929</v>
+        <v>8.935845</v>
       </c>
       <c r="N24">
-        <v>8.696497647771929</v>
+        <v>26.807535</v>
       </c>
       <c r="O24">
-        <v>0.1768374244315352</v>
+        <v>0.174249787151636</v>
       </c>
       <c r="P24">
-        <v>0.1768374244315352</v>
+        <v>0.2124071457323227</v>
       </c>
       <c r="Q24">
-        <v>315.7774211661642</v>
+        <v>338.9325886555951</v>
       </c>
       <c r="R24">
-        <v>315.7774211661642</v>
+        <v>3050.393297900355</v>
       </c>
       <c r="S24">
-        <v>0.05526259168816962</v>
+        <v>0.04894628435060754</v>
       </c>
       <c r="T24">
-        <v>0.05526259168816962</v>
+        <v>0.06336030947278994</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>36.3108729463139</v>
+        <v>37.929551</v>
       </c>
       <c r="H25">
-        <v>36.3108729463139</v>
+        <v>113.788653</v>
       </c>
       <c r="I25">
-        <v>0.3125050699297264</v>
+        <v>0.2808972403967036</v>
       </c>
       <c r="J25">
-        <v>0.3125050699297264</v>
+        <v>0.2982965062420129</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.082807119161</v>
+        <v>16.095412</v>
       </c>
       <c r="N25">
-        <v>15.082807119161</v>
+        <v>32.190824</v>
       </c>
       <c r="O25">
-        <v>0.3066987277152201</v>
+        <v>0.3138619923597475</v>
       </c>
       <c r="P25">
-        <v>0.3066987277152201</v>
+        <v>0.2550611626399649</v>
       </c>
       <c r="Q25">
-        <v>547.6698929776138</v>
+        <v>610.491750320012</v>
       </c>
       <c r="R25">
-        <v>547.6698929776138</v>
+        <v>3662.950501920072</v>
       </c>
       <c r="S25">
-        <v>0.09584490735200295</v>
+        <v>0.08816296751926433</v>
       </c>
       <c r="T25">
-        <v>0.09584490735200295</v>
+        <v>0.07608385369352734</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.47954050544071</v>
+        <v>6.007685333333334</v>
       </c>
       <c r="H26">
-        <v>5.47954050544071</v>
+        <v>18.023056</v>
       </c>
       <c r="I26">
-        <v>0.04715899260718132</v>
+        <v>0.0444914897965727</v>
       </c>
       <c r="J26">
-        <v>0.04715899260718132</v>
+        <v>0.04724737040875374</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>11.3842875650943</v>
+        <v>11.541773</v>
       </c>
       <c r="N26">
-        <v>11.3842875650943</v>
+        <v>23.083546</v>
       </c>
       <c r="O26">
-        <v>0.2314918227471734</v>
+        <v>0.2250656192673999</v>
       </c>
       <c r="P26">
-        <v>0.2314918227471734</v>
+        <v>0.1829004464319742</v>
       </c>
       <c r="Q26">
-        <v>62.38066483851921</v>
+        <v>69.33934037276266</v>
       </c>
       <c r="R26">
-        <v>62.38066483851921</v>
+        <v>416.036042236576</v>
       </c>
       <c r="S26">
-        <v>0.01091692115755688</v>
+        <v>0.01001350470319484</v>
       </c>
       <c r="T26">
-        <v>0.01091692115755688</v>
+        <v>0.008641565140497907</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.47954050544071</v>
+        <v>6.007685333333334</v>
       </c>
       <c r="H27">
-        <v>5.47954050544071</v>
+        <v>18.023056</v>
       </c>
       <c r="I27">
-        <v>0.04715899260718132</v>
+        <v>0.0444914897965727</v>
       </c>
       <c r="J27">
-        <v>0.04715899260718132</v>
+        <v>0.04724737040875374</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>8.190744212588671</v>
+        <v>8.826438333333334</v>
       </c>
       <c r="N27">
-        <v>8.190744212588671</v>
+        <v>26.479315</v>
       </c>
       <c r="O27">
-        <v>0.1665532688441278</v>
+        <v>0.1721163472386074</v>
       </c>
       <c r="P27">
-        <v>0.1665532688441278</v>
+        <v>0.20980652343071</v>
       </c>
       <c r="Q27">
-        <v>44.88151468258369</v>
+        <v>53.02646412073778</v>
       </c>
       <c r="R27">
-        <v>44.88151468258369</v>
+        <v>477.23817708664</v>
       </c>
       <c r="S27">
-        <v>0.007854484374122107</v>
+        <v>0.007657712706989867</v>
       </c>
       <c r="T27">
-        <v>0.007854484374122107</v>
+        <v>0.009912806526703625</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.47954050544071</v>
+        <v>6.007685333333334</v>
       </c>
       <c r="H28">
-        <v>5.47954050544071</v>
+        <v>18.023056</v>
       </c>
       <c r="I28">
-        <v>0.04715899260718132</v>
+        <v>0.0444914897965727</v>
       </c>
       <c r="J28">
-        <v>0.04715899260718132</v>
+        <v>0.04724737040875374</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.36062354705746</v>
+        <v>3.407739666666667</v>
       </c>
       <c r="N28">
-        <v>3.36062354705746</v>
+        <v>10.223219</v>
       </c>
       <c r="O28">
-        <v>0.06833601716638985</v>
+        <v>0.06645123226565072</v>
       </c>
       <c r="P28">
-        <v>0.06833601716638985</v>
+        <v>0.0810027765695895</v>
       </c>
       <c r="Q28">
-        <v>18.41467284963919</v>
+        <v>20.47262761525156</v>
       </c>
       <c r="R28">
-        <v>18.41467284963919</v>
+        <v>184.253648537264</v>
       </c>
       <c r="S28">
-        <v>0.003222657728353994</v>
+        <v>0.002956514322316881</v>
       </c>
       <c r="T28">
-        <v>0.003222657728353994</v>
+        <v>0.003827168188720913</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.47954050544071</v>
+        <v>6.007685333333334</v>
       </c>
       <c r="H29">
-        <v>5.47954050544071</v>
+        <v>18.023056</v>
       </c>
       <c r="I29">
-        <v>0.04715899260718132</v>
+        <v>0.0444914897965727</v>
       </c>
       <c r="J29">
-        <v>0.04715899260718132</v>
+        <v>0.04724737040875374</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.46296520173015</v>
+        <v>2.474605</v>
       </c>
       <c r="N29">
-        <v>2.46296520173015</v>
+        <v>7.423815</v>
       </c>
       <c r="O29">
-        <v>0.0500827390955535</v>
+        <v>0.0482550217169584</v>
       </c>
       <c r="P29">
-        <v>0.0500827390955535</v>
+        <v>0.05882194519543864</v>
       </c>
       <c r="Q29">
-        <v>13.49591758637131</v>
+        <v>14.86664816429333</v>
       </c>
       <c r="R29">
-        <v>13.49591758637131</v>
+        <v>133.79983347864</v>
       </c>
       <c r="S29">
-        <v>0.002361851522754598</v>
+        <v>0.002146937806353449</v>
       </c>
       <c r="T29">
-        <v>0.002361851522754598</v>
+        <v>0.002779182232812301</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.47954050544071</v>
+        <v>6.007685333333334</v>
       </c>
       <c r="H30">
-        <v>5.47954050544071</v>
+        <v>18.023056</v>
       </c>
       <c r="I30">
-        <v>0.04715899260718132</v>
+        <v>0.0444914897965727</v>
       </c>
       <c r="J30">
-        <v>0.04715899260718132</v>
+        <v>0.04724737040875374</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.696497647771929</v>
+        <v>8.935845</v>
       </c>
       <c r="N30">
-        <v>8.696497647771929</v>
+        <v>26.807535</v>
       </c>
       <c r="O30">
-        <v>0.1768374244315352</v>
+        <v>0.174249787151636</v>
       </c>
       <c r="P30">
-        <v>0.1768374244315352</v>
+        <v>0.2124071457323227</v>
       </c>
       <c r="Q30">
-        <v>47.65281111643614</v>
+        <v>53.68374494744</v>
       </c>
       <c r="R30">
-        <v>47.65281111643614</v>
+        <v>483.15370452696</v>
       </c>
       <c r="S30">
-        <v>0.008339474791439754</v>
+        <v>0.007752632627111978</v>
       </c>
       <c r="T30">
-        <v>0.008339474791439754</v>
+        <v>0.01003567909188119</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.47954050544071</v>
+        <v>6.007685333333334</v>
       </c>
       <c r="H31">
-        <v>5.47954050544071</v>
+        <v>18.023056</v>
       </c>
       <c r="I31">
-        <v>0.04715899260718132</v>
+        <v>0.0444914897965727</v>
       </c>
       <c r="J31">
-        <v>0.04715899260718132</v>
+        <v>0.04724737040875374</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>15.082807119161</v>
+        <v>16.095412</v>
       </c>
       <c r="N31">
-        <v>15.082807119161</v>
+        <v>32.190824</v>
       </c>
       <c r="O31">
-        <v>0.3066987277152201</v>
+        <v>0.3138619923597475</v>
       </c>
       <c r="P31">
-        <v>0.3066987277152201</v>
+        <v>0.2550611626399649</v>
       </c>
       <c r="Q31">
-        <v>82.6468525451922</v>
+        <v>96.69617060635734</v>
       </c>
       <c r="R31">
-        <v>82.6468525451922</v>
+        <v>580.177023638144</v>
       </c>
       <c r="S31">
-        <v>0.01446360303295398</v>
+        <v>0.01396418763060568</v>
       </c>
       <c r="T31">
-        <v>0.01446360303295398</v>
+        <v>0.0120509692281378</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.802982891753</v>
+        <v>6.4415615</v>
       </c>
       <c r="H32">
-        <v>2.802982891753</v>
+        <v>12.883123</v>
       </c>
       <c r="I32">
-        <v>0.02412352812046673</v>
+        <v>0.0477046735722142</v>
       </c>
       <c r="J32">
-        <v>0.02412352812046673</v>
+        <v>0.03377305626762379</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>11.3842875650943</v>
+        <v>11.541773</v>
       </c>
       <c r="N32">
-        <v>11.3842875650943</v>
+        <v>23.083546</v>
       </c>
       <c r="O32">
-        <v>0.2314918227471734</v>
+        <v>0.2250656192673999</v>
       </c>
       <c r="P32">
-        <v>0.2314918227471734</v>
+        <v>0.1829004464319742</v>
       </c>
       <c r="Q32">
-        <v>31.90996327975574</v>
+        <v>74.34704059853949</v>
       </c>
       <c r="R32">
-        <v>31.90996327975574</v>
+        <v>297.388162394158</v>
       </c>
       <c r="S32">
-        <v>0.005584399495699536</v>
+        <v>0.01073668189947955</v>
       </c>
       <c r="T32">
-        <v>0.005584399495699536</v>
+        <v>0.006177107068720577</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.802982891753</v>
+        <v>6.4415615</v>
       </c>
       <c r="H33">
-        <v>2.802982891753</v>
+        <v>12.883123</v>
       </c>
       <c r="I33">
-        <v>0.02412352812046673</v>
+        <v>0.0477046735722142</v>
       </c>
       <c r="J33">
-        <v>0.02412352812046673</v>
+        <v>0.03377305626762379</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>8.190744212588671</v>
+        <v>8.826438333333334</v>
       </c>
       <c r="N33">
-        <v>8.190744212588671</v>
+        <v>26.479315</v>
       </c>
       <c r="O33">
-        <v>0.1665532688441278</v>
+        <v>0.1721163472386074</v>
       </c>
       <c r="P33">
-        <v>0.1665532688441278</v>
+        <v>0.20980652343071</v>
       </c>
       <c r="Q33">
-        <v>22.95851589861094</v>
+        <v>56.85604535012417</v>
       </c>
       <c r="R33">
-        <v>22.95851589861094</v>
+        <v>341.136272100745</v>
       </c>
       <c r="S33">
-        <v>0.004017852464516972</v>
+        <v>0.008210754161459638</v>
       </c>
       <c r="T33">
-        <v>0.004017852464516972</v>
+        <v>0.007085807521139898</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.802982891753</v>
+        <v>6.4415615</v>
       </c>
       <c r="H34">
-        <v>2.802982891753</v>
+        <v>12.883123</v>
       </c>
       <c r="I34">
-        <v>0.02412352812046673</v>
+        <v>0.0477046735722142</v>
       </c>
       <c r="J34">
-        <v>0.02412352812046673</v>
+        <v>0.03377305626762379</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>3.36062354705746</v>
+        <v>3.407739666666667</v>
       </c>
       <c r="N34">
-        <v>3.36062354705746</v>
+        <v>10.223219</v>
       </c>
       <c r="O34">
-        <v>0.06833601716638985</v>
+        <v>0.06645123226565072</v>
       </c>
       <c r="P34">
-        <v>0.06833601716638985</v>
+        <v>0.0810027765695895</v>
       </c>
       <c r="Q34">
-        <v>9.419770308024344</v>
+        <v>21.95116463882283</v>
       </c>
       <c r="R34">
-        <v>9.419770308024344</v>
+        <v>131.706987832937</v>
       </c>
       <c r="S34">
-        <v>0.001648505831754102</v>
+        <v>0.003170034343704255</v>
       </c>
       <c r="T34">
-        <v>0.001648505831754102</v>
+        <v>0.002735711330918504</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.802982891753</v>
+        <v>6.4415615</v>
       </c>
       <c r="H35">
-        <v>2.802982891753</v>
+        <v>12.883123</v>
       </c>
       <c r="I35">
-        <v>0.02412352812046673</v>
+        <v>0.0477046735722142</v>
       </c>
       <c r="J35">
-        <v>0.02412352812046673</v>
+        <v>0.03377305626762379</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.46296520173015</v>
+        <v>2.474605</v>
       </c>
       <c r="N35">
-        <v>2.46296520173015</v>
+        <v>7.423815</v>
       </c>
       <c r="O35">
-        <v>0.0500827390955535</v>
+        <v>0.0482550217169584</v>
       </c>
       <c r="P35">
-        <v>0.0500827390955535</v>
+        <v>0.05882194519543864</v>
       </c>
       <c r="Q35">
-        <v>6.903649323432587</v>
+        <v>15.9403202957075</v>
       </c>
       <c r="R35">
-        <v>6.903649323432587</v>
+        <v>95.64192177424501</v>
       </c>
       <c r="S35">
-        <v>0.001208172364921583</v>
+        <v>0.002301990059227607</v>
       </c>
       <c r="T35">
-        <v>0.001208172364921583</v>
+        <v>0.001986596864856632</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.802982891753</v>
+        <v>6.4415615</v>
       </c>
       <c r="H36">
-        <v>2.802982891753</v>
+        <v>12.883123</v>
       </c>
       <c r="I36">
-        <v>0.02412352812046673</v>
+        <v>0.0477046735722142</v>
       </c>
       <c r="J36">
-        <v>0.02412352812046673</v>
+        <v>0.03377305626762379</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.696497647771929</v>
+        <v>8.935845</v>
       </c>
       <c r="N36">
-        <v>8.696497647771929</v>
+        <v>26.807535</v>
       </c>
       <c r="O36">
-        <v>0.1768374244315352</v>
+        <v>0.174249787151636</v>
       </c>
       <c r="P36">
-        <v>0.1768374244315352</v>
+        <v>0.2124071457323227</v>
       </c>
       <c r="Q36">
-        <v>24.37613412487492</v>
+        <v>57.5607951219675</v>
       </c>
       <c r="R36">
-        <v>24.37613412487492</v>
+        <v>345.364770731805</v>
       </c>
       <c r="S36">
-        <v>0.00426594258102505</v>
+        <v>0.008312529216096598</v>
       </c>
       <c r="T36">
-        <v>0.00426594258102505</v>
+        <v>0.007173638484463101</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.802982891753</v>
+        <v>6.4415615</v>
       </c>
       <c r="H37">
-        <v>2.802982891753</v>
+        <v>12.883123</v>
       </c>
       <c r="I37">
-        <v>0.02412352812046673</v>
+        <v>0.0477046735722142</v>
       </c>
       <c r="J37">
-        <v>0.02412352812046673</v>
+        <v>0.03377305626762379</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>15.082807119161</v>
+        <v>16.095412</v>
       </c>
       <c r="N37">
-        <v>15.082807119161</v>
+        <v>32.190824</v>
       </c>
       <c r="O37">
-        <v>0.3066987277152201</v>
+        <v>0.3138619923597475</v>
       </c>
       <c r="P37">
-        <v>0.3066987277152201</v>
+        <v>0.2550611626399649</v>
       </c>
       <c r="Q37">
-        <v>42.27685031461863</v>
+        <v>103.679586265838</v>
       </c>
       <c r="R37">
-        <v>42.27685031461863</v>
+        <v>414.718345063352</v>
       </c>
       <c r="S37">
-        <v>0.00739865538254948</v>
+        <v>0.01497268389224654</v>
       </c>
       <c r="T37">
-        <v>0.00739865538254948</v>
+        <v>0.008614194997525077</v>
       </c>
     </row>
   </sheetData>
